--- a/municipal/ENG/Demography/Number of stillbirths/adigeni.xlsx
+++ b/municipal/ENG/Demography/Number of stillbirths/adigeni.xlsx
@@ -5,22 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\New folder\მკვდრადშობილთა რიცხოვნობა\Number of stillbirths\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\Number of stillbirths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F02D3E-2F8E-4333-BC61-1B518F32E580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92C97F0-389B-4AF4-AEFA-8E606D55A5A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="3120" windowWidth="27045" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="1" sheetId="1" r:id="rId1"/>
+    <sheet name="Adigeni" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="7">
   <si>
     <t>Number of stillbirths by urban-rural settlements, in the municipality of Adigeni</t>
   </si>
@@ -59,14 +59,14 @@
     </r>
   </si>
   <si>
-    <t>…</t>
+    <t>...</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,19 +89,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -355,9 +342,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -371,50 +358,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -423,13 +377,37 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -830,7 +808,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR9"/>
+  <dimension ref="A1:AR8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -985,72 +963,72 @@
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
-      <c r="B4" s="9">
+      <c r="B4" s="19">
         <v>2010</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="20">
         <v>2011</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="20">
         <v>2012</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="20">
         <v>2013</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="20">
         <v>2014</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="20">
         <v>2015</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="20">
         <v>2016</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="20">
         <v>2017</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="20">
         <v>2018</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="20">
         <v>2019</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="20">
         <v>2020</v>
       </c>
-      <c r="M4" s="20">
+      <c r="M4" s="21">
         <v>2021</v>
       </c>
-      <c r="N4" s="21">
+      <c r="N4" s="22">
         <v>2022</v>
       </c>
-      <c r="O4" s="22">
+      <c r="O4" s="23">
         <v>2023</v>
       </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="24">
         <v>4</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="24" t="s">
+      <c r="C5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="13">
         <v>4</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="13" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="13">
         <v>5</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="13" t="s">
         <v>6</v>
       </c>
       <c r="I5" s="13">
@@ -1059,118 +1037,118 @@
       <c r="J5" s="13">
         <v>4</v>
       </c>
-      <c r="K5" s="24" t="s">
+      <c r="K5" s="13" t="s">
         <v>6</v>
       </c>
       <c r="L5" s="13">
         <v>7</v>
       </c>
-      <c r="M5" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="N5" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="O5" s="27" t="s">
+      <c r="M5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="16" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15">
-        <v>0</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="16">
-        <v>1</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="16">
-        <v>0</v>
-      </c>
-      <c r="H6" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="16">
-        <v>1</v>
-      </c>
-      <c r="J6" s="16">
-        <v>0</v>
-      </c>
-      <c r="K6" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="16">
-        <v>1</v>
-      </c>
-      <c r="M6" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="N6" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="O6" s="28" t="s">
+      <c r="B6" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="O6" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="26">
         <v>4</v>
       </c>
-      <c r="C7" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="19">
-        <v>3</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="19">
+      <c r="C7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="15">
         <v>5</v>
       </c>
-      <c r="H7" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="19">
-        <v>5</v>
-      </c>
-      <c r="J7" s="19">
+      <c r="H7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="15">
         <v>4</v>
       </c>
-      <c r="K7" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="L7" s="19">
-        <v>6</v>
-      </c>
-      <c r="M7" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="N7" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="O7" s="29" t="s">
+      <c r="K7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
         <v>5</v>
       </c>
     </row>
